--- a/TastData/CategoryTestData.xlsx
+++ b/TastData/CategoryTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sub Category Name</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Holly Adams</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -409,13 +415,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
